--- a/data/trans_camb/P34A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,33; -9,23</t>
+          <t>-34,51; -9,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,73; -8,58</t>
+          <t>-33,33; -8,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 1,77</t>
+          <t>-25,97; -0,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 2,55</t>
+          <t>-20,43; 2,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 19,33</t>
+          <t>-4,8; 19,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 15,89</t>
+          <t>-4,33; 16,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,67; -7,1</t>
+          <t>-25,08; -7,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 1,07</t>
+          <t>-14,76; 3,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 5,46</t>
+          <t>-11,92; 4,45</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,65; -23,61</t>
+          <t>-64,93; -22,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-63,69; -20,52</t>
+          <t>-62,44; -19,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,18; 5,1</t>
+          <t>-49,88; 1,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,15; 10,57</t>
+          <t>-56,63; 10,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 75,17</t>
+          <t>-11,93; 75,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 65,19</t>
+          <t>-11,54; 67,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,62; -19,41</t>
+          <t>-57,1; -20,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 2,87</t>
+          <t>-34,61; 9,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-28,16; 16,38</t>
+          <t>-27,04; 14,29</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,77; -15,75</t>
+          <t>-27,09; -16,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,51; -1,5</t>
+          <t>-12,77; -1,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 0,11</t>
+          <t>-12,14; -0,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,51; -9,36</t>
+          <t>-20,45; -9,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 10,29</t>
+          <t>-2,14; 9,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 0,21</t>
+          <t>-10,31; -0,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,96; -14,52</t>
+          <t>-22,33; -14,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 2,26</t>
+          <t>-5,77; 2,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,54; -1,78</t>
+          <t>-9,48; -1,56</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,22; -37,76</t>
+          <t>-57,24; -39,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,58; -3,51</t>
+          <t>-26,99; -3,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 0,31</t>
+          <t>-26,04; -0,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,18; -23,37</t>
+          <t>-44,32; -22,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 25,42</t>
+          <t>-4,55; 23,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 0,84</t>
+          <t>-21,8; -0,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,66; -34,58</t>
+          <t>-48,79; -34,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 5,46</t>
+          <t>-12,32; 6,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,79; -4,39</t>
+          <t>-20,32; -3,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,16; -13,75</t>
+          <t>-22,67; -13,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -2,11</t>
+          <t>-11,58; -2,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,6; -5,57</t>
+          <t>-16,4; -5,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -6,09</t>
+          <t>-15,89; -6,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 0,18</t>
+          <t>-8,71; 0,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -4,78</t>
+          <t>-13,5; -4,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,54; -11,04</t>
+          <t>-17,52; -11,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,85; -1,83</t>
+          <t>-8,96; -2,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,8; -6,64</t>
+          <t>-13,76; -6,63</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,14; -34,44</t>
+          <t>-50,58; -34,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,09; -4,98</t>
+          <t>-26,26; -7,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,63; -13,79</t>
+          <t>-37,76; -14,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,26; -14,02</t>
+          <t>-31,81; -13,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 0,39</t>
+          <t>-17,39; 1,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,09; -10,81</t>
+          <t>-27,42; -11,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,79; -25,5</t>
+          <t>-38,02; -25,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,03; -4,56</t>
+          <t>-19,59; -5,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,23; -15,45</t>
+          <t>-29,71; -15,49</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,78; -7,23</t>
+          <t>-16,54; -6,69</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 5,5</t>
+          <t>-4,5; 5,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 7,12</t>
+          <t>-4,05; 7,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,03; -5,52</t>
+          <t>-15,81; -5,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 5,6</t>
+          <t>-4,26; 6,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 8,06</t>
+          <t>-15,67; 8,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,63; -8,04</t>
+          <t>-14,87; -7,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 4,09</t>
+          <t>-3,14; 4,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 5,78</t>
+          <t>-6,78; 6,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,1; -24,07</t>
+          <t>-47,28; -22,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 18,66</t>
+          <t>-12,59; 19,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 23,4</t>
+          <t>-10,95; 25,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,03; -15,14</t>
+          <t>-37,46; -15,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 15,45</t>
+          <t>-10,29; 17,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 20,9</t>
+          <t>-37,52; 22,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-38,87; -23,82</t>
+          <t>-39,21; -22,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 11,93</t>
+          <t>-8,18; 12,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 16,8</t>
+          <t>-17,93; 17,39</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-25,65; -17,56</t>
+          <t>-25,91; -17,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -7,03</t>
+          <t>-15,25; -7,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,44; -9,72</t>
+          <t>-18,54; -10,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-26,64; -18,34</t>
+          <t>-26,68; -18,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -5,84</t>
+          <t>-14,91; -5,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,08; -8,58</t>
+          <t>-17,17; -8,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-25,04; -19,09</t>
+          <t>-24,99; -18,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,95; -7,62</t>
+          <t>-13,64; -7,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-16,43; -10,22</t>
+          <t>-16,49; -10,31</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,53; -41,92</t>
+          <t>-56,77; -41,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-34,66; -17,05</t>
+          <t>-34,38; -17,11</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,88; -23,67</t>
+          <t>-41,12; -23,51</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-48,58; -35,54</t>
+          <t>-48,61; -35,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,14; -11,64</t>
+          <t>-27,25; -11,77</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,09; -16,83</t>
+          <t>-31,37; -17,24</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-50,3; -40,85</t>
+          <t>-50,22; -40,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-27,83; -16,1</t>
+          <t>-27,57; -15,74</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-33,0; -21,83</t>
+          <t>-33,05; -21,86</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-20,84; -16,34</t>
+          <t>-20,95; -16,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,63; -4,87</t>
+          <t>-9,81; -5,05</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,22; -5,95</t>
+          <t>-11,13; -5,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,47; -12,86</t>
+          <t>-17,38; -12,73</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -0,72</t>
+          <t>-5,92; -0,99</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,15; -4,49</t>
+          <t>-10,9; -4,64</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-18,42; -15,26</t>
+          <t>-18,44; -15,26</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,07; -3,6</t>
+          <t>-7,08; -3,63</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,67; -5,72</t>
+          <t>-9,87; -5,68</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-49,31; -40,96</t>
+          <t>-49,55; -40,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,76; -12,18</t>
+          <t>-23,38; -12,72</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,35; -15,03</t>
+          <t>-26,55; -14,55</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-37,11; -28,88</t>
+          <t>-36,99; -28,37</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,07; -1,64</t>
+          <t>-12,6; -2,18</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-23,78; -9,94</t>
+          <t>-23,25; -10,27</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-41,4; -35,65</t>
+          <t>-41,41; -35,57</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-15,82; -8,36</t>
+          <t>-15,97; -8,48</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-22,3; -13,37</t>
+          <t>-22,39; -13,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P34A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,51; -9,1</t>
+          <t>-34,51; -9,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,33; -8,33</t>
+          <t>-32,97; -7,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,97; -0,03</t>
+          <t>-26,22; 1,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 2,48</t>
+          <t>-20,03; 3,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 19,35</t>
+          <t>-3,18; 20,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 16,68</t>
+          <t>-4,93; 15,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-25,08; -7,52</t>
+          <t>-23,85; -7,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 3,47</t>
+          <t>-15,69; 2,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 4,45</t>
+          <t>-11,73; 5,9</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-64,93; -22,47</t>
+          <t>-65,23; -23,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-62,44; -19,39</t>
+          <t>-62,33; -19,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,88; 1,09</t>
+          <t>-48,98; 3,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,63; 10,46</t>
+          <t>-54,24; 14,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 75,67</t>
+          <t>-8,99; 80,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 67,87</t>
+          <t>-13,08; 62,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-57,1; -20,54</t>
+          <t>-56,01; -20,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,61; 9,99</t>
+          <t>-36,94; 6,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 14,29</t>
+          <t>-27,23; 18,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,09; -16,51</t>
+          <t>-27,12; -16,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,77; -1,33</t>
+          <t>-13,18; -1,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,14; -0,11</t>
+          <t>-11,98; 0,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,45; -9,53</t>
+          <t>-21,28; -9,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 9,57</t>
+          <t>-2,39; 9,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,31; -0,27</t>
+          <t>-10,4; -0,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,33; -14,56</t>
+          <t>-22,27; -14,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 2,7</t>
+          <t>-5,82; 2,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,48; -1,56</t>
+          <t>-9,66; -1,85</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,24; -39,02</t>
+          <t>-56,93; -38,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,99; -3,04</t>
+          <t>-27,58; -3,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,04; -0,22</t>
+          <t>-25,87; 0,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,32; -22,75</t>
+          <t>-45,22; -23,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 23,45</t>
+          <t>-5,07; 23,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,8; -0,47</t>
+          <t>-22,47; -0,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,79; -34,61</t>
+          <t>-48,15; -34,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 6,58</t>
+          <t>-12,47; 6,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,32; -3,58</t>
+          <t>-20,8; -4,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -13,92</t>
+          <t>-22,41; -13,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,58; -2,96</t>
+          <t>-11,54; -2,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,4; -5,56</t>
+          <t>-16,88; -5,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,89; -6,29</t>
+          <t>-15,72; -6,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 0,53</t>
+          <t>-8,87; 0,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,5; -4,96</t>
+          <t>-13,74; -5,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,52; -11,13</t>
+          <t>-17,72; -10,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,96; -2,46</t>
+          <t>-8,8; -2,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,76; -6,63</t>
+          <t>-13,85; -6,61</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,58; -34,51</t>
+          <t>-50,66; -34,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,26; -7,48</t>
+          <t>-26,19; -5,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,76; -14,61</t>
+          <t>-38,06; -14,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,81; -13,66</t>
+          <t>-31,6; -14,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 1,62</t>
+          <t>-17,86; 0,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,42; -11,15</t>
+          <t>-27,63; -11,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,02; -25,82</t>
+          <t>-38,2; -25,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,59; -5,74</t>
+          <t>-18,87; -4,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,71; -15,49</t>
+          <t>-29,57; -15,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,54; -6,69</t>
+          <t>-17,42; -7,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 5,84</t>
+          <t>-4,69; 5,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 7,73</t>
+          <t>-3,98; 6,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,81; -5,92</t>
+          <t>-15,89; -5,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 6,28</t>
+          <t>-4,58; 6,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 8,7</t>
+          <t>-12,03; 8,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,87; -7,84</t>
+          <t>-14,89; -8,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 4,25</t>
+          <t>-2,81; 4,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,78; 6,05</t>
+          <t>-7,07; 6,38</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,28; -22,6</t>
+          <t>-47,41; -24,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 19,87</t>
+          <t>-13,18; 17,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 25,95</t>
+          <t>-11,29; 21,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,46; -15,64</t>
+          <t>-38,58; -15,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 17,33</t>
+          <t>-11,01; 16,92</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,52; 22,69</t>
+          <t>-29,43; 22,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,21; -22,72</t>
+          <t>-39,58; -24,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 12,57</t>
+          <t>-7,46; 13,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 17,39</t>
+          <t>-18,71; 18,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-25,91; -17,4</t>
+          <t>-25,61; -17,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,25; -7,06</t>
+          <t>-15,91; -6,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,54; -10,03</t>
+          <t>-18,69; -10,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-26,68; -18,12</t>
+          <t>-26,88; -18,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,91; -5,79</t>
+          <t>-14,7; -6,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,17; -8,76</t>
+          <t>-17,48; -8,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-24,99; -18,79</t>
+          <t>-25,33; -19,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,64; -7,35</t>
+          <t>-13,91; -7,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-16,49; -10,31</t>
+          <t>-16,16; -10,06</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,77; -41,69</t>
+          <t>-56,94; -41,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-34,38; -17,11</t>
+          <t>-35,01; -17,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,12; -23,51</t>
+          <t>-41,14; -24,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-48,61; -35,8</t>
+          <t>-48,82; -36,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,25; -11,77</t>
+          <t>-27,08; -12,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,37; -17,24</t>
+          <t>-31,62; -17,06</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-50,22; -40,43</t>
+          <t>-50,55; -40,96</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-27,57; -15,74</t>
+          <t>-27,98; -16,27</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-33,05; -21,86</t>
+          <t>-32,44; -21,34</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-20,95; -16,2</t>
+          <t>-20,95; -16,49</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -5,05</t>
+          <t>-9,63; -4,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,13; -5,8</t>
+          <t>-10,97; -5,79</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,38; -12,73</t>
+          <t>-17,68; -12,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,92; -0,99</t>
+          <t>-5,95; -0,92</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,9; -4,64</t>
+          <t>-10,93; -4,68</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-18,44; -15,26</t>
+          <t>-18,35; -15,17</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,08; -3,63</t>
+          <t>-6,91; -3,46</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,87; -5,68</t>
+          <t>-9,96; -5,6</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-49,55; -40,67</t>
+          <t>-49,49; -41,11</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-23,38; -12,72</t>
+          <t>-22,9; -12,4</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,55; -14,55</t>
+          <t>-26,14; -14,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-36,99; -28,37</t>
+          <t>-37,27; -28,63</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,6; -2,18</t>
+          <t>-12,36; -1,92</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-23,25; -10,27</t>
+          <t>-23,92; -10,39</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-41,41; -35,57</t>
+          <t>-41,33; -35,51</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-15,97; -8,48</t>
+          <t>-15,62; -8,12</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-22,39; -13,29</t>
+          <t>-22,52; -13,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P34A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,51; -9,61</t>
+          <t>-34,33; -9,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,97; -7,85</t>
+          <t>-33,73; -8,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 1,03</t>
+          <t>-26,01; 1,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 3,08</t>
+          <t>-19,83; 2,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 20,47</t>
+          <t>-5,39; 19,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 15,56</t>
+          <t>-5,22; 15,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,85; -7,03</t>
+          <t>-24,67; -7,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 2,06</t>
+          <t>-16,42; 1,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 5,9</t>
+          <t>-12,3; 5,46</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,23; -23,52</t>
+          <t>-65,65; -23,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-62,33; -19,42</t>
+          <t>-63,69; -20,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,98; 3,71</t>
+          <t>-49,18; 5,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,24; 14,23</t>
+          <t>-56,15; 10,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 80,08</t>
+          <t>-13,88; 75,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 62,77</t>
+          <t>-14,39; 65,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-56,01; -20,5</t>
+          <t>-55,62; -19,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,94; 6,31</t>
+          <t>-37,85; 2,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 18,07</t>
+          <t>-28,16; 16,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-27,12; -16,26</t>
+          <t>-26,77; -15,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,18; -1,49</t>
+          <t>-12,51; -1,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 0,4</t>
+          <t>-11,97; 0,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,28; -9,62</t>
+          <t>-20,51; -9,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 9,52</t>
+          <t>-1,69; 10,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,4; -0,24</t>
+          <t>-10,11; 0,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,27; -14,69</t>
+          <t>-21,96; -14,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 2,61</t>
+          <t>-6,0; 2,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,66; -1,85</t>
+          <t>-9,54; -1,78</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,93; -38,77</t>
+          <t>-57,22; -37,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,58; -3,51</t>
+          <t>-26,58; -3,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 0,77</t>
+          <t>-25,69; 0,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,22; -23,66</t>
+          <t>-45,18; -23,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 23,58</t>
+          <t>-3,59; 25,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,47; -0,78</t>
+          <t>-21,84; 0,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,15; -34,6</t>
+          <t>-48,66; -34,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,47; 6,36</t>
+          <t>-13,33; 5,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,8; -4,35</t>
+          <t>-20,79; -4,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,41; -13,78</t>
+          <t>-22,16; -13,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,54; -2,28</t>
+          <t>-11,38; -2,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,88; -5,7</t>
+          <t>-16,6; -5,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,72; -6,58</t>
+          <t>-15,87; -6,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 0,23</t>
+          <t>-9,23; 0,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,74; -5,26</t>
+          <t>-13,32; -4,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,72; -10,89</t>
+          <t>-17,54; -11,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,8; -2,16</t>
+          <t>-8,85; -1,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,85; -6,61</t>
+          <t>-13,8; -6,64</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,66; -34,25</t>
+          <t>-50,14; -34,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,19; -5,8</t>
+          <t>-25,09; -4,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,06; -14,3</t>
+          <t>-37,63; -13,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,6; -14,42</t>
+          <t>-32,26; -14,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 0,53</t>
+          <t>-18,29; 0,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,63; -11,44</t>
+          <t>-27,09; -10,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,2; -25,55</t>
+          <t>-37,79; -25,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,87; -4,78</t>
+          <t>-19,03; -4,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,57; -15,18</t>
+          <t>-30,23; -15,45</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,42; -7,33</t>
+          <t>-16,78; -7,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 5,48</t>
+          <t>-4,51; 5,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 6,73</t>
+          <t>-3,62; 7,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,89; -5,71</t>
+          <t>-16,03; -5,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 6,27</t>
+          <t>-4,89; 5,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 8,59</t>
+          <t>-13,34; 8,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,89; -8,07</t>
+          <t>-14,63; -8,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 4,46</t>
+          <t>-2,98; 4,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 6,38</t>
+          <t>-6,77; 5,78</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,41; -24,06</t>
+          <t>-47,1; -24,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 17,89</t>
+          <t>-12,77; 18,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 21,99</t>
+          <t>-10,37; 23,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,58; -15,7</t>
+          <t>-38,03; -15,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 16,92</t>
+          <t>-11,63; 15,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-29,43; 22,82</t>
+          <t>-30,17; 20,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,58; -24,16</t>
+          <t>-38,87; -23,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 13,19</t>
+          <t>-7,97; 11,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 18,49</t>
+          <t>-18,07; 16,8</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-25,61; -17,28</t>
+          <t>-25,65; -17,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,91; -6,97</t>
+          <t>-15,86; -7,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,69; -10,24</t>
+          <t>-18,44; -9,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-26,88; -18,64</t>
+          <t>-26,64; -18,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,7; -6,05</t>
+          <t>-14,88; -5,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,48; -8,66</t>
+          <t>-17,08; -8,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-25,33; -19,17</t>
+          <t>-25,04; -19,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -7,68</t>
+          <t>-13,95; -7,62</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-16,16; -10,06</t>
+          <t>-16,43; -10,22</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,94; -41,75</t>
+          <t>-56,53; -41,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-35,01; -17,14</t>
+          <t>-34,66; -17,05</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,14; -24,48</t>
+          <t>-40,88; -23,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-48,82; -36,13</t>
+          <t>-48,58; -35,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,08; -12,07</t>
+          <t>-27,14; -11,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,62; -17,06</t>
+          <t>-31,09; -16,83</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-50,55; -40,96</t>
+          <t>-50,3; -40,85</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-27,98; -16,27</t>
+          <t>-27,83; -16,1</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-32,44; -21,34</t>
+          <t>-33,0; -21,83</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-20,95; -16,49</t>
+          <t>-20,84; -16,34</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,63; -4,89</t>
+          <t>-9,63; -4,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,97; -5,79</t>
+          <t>-11,22; -5,95</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -12,94</t>
+          <t>-17,47; -12,86</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,95; -0,92</t>
+          <t>-5,72; -0,72</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-10,93; -4,68</t>
+          <t>-11,15; -4,49</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-18,35; -15,17</t>
+          <t>-18,42; -15,26</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,91; -3,46</t>
+          <t>-7,07; -3,6</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-9,96; -5,6</t>
+          <t>-9,67; -5,72</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-49,49; -41,11</t>
+          <t>-49,31; -40,96</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-22,9; -12,4</t>
+          <t>-22,76; -12,18</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-26,14; -14,65</t>
+          <t>-26,35; -15,03</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-37,27; -28,63</t>
+          <t>-37,11; -28,88</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,36; -1,92</t>
+          <t>-12,07; -1,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-23,92; -10,39</t>
+          <t>-23,78; -9,94</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-41,33; -35,51</t>
+          <t>-41,4; -35,65</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-15,62; -8,12</t>
+          <t>-15,82; -8,36</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-22,52; -13,08</t>
+          <t>-22,3; -13,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P34A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-22,27</t>
+          <t>-21,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-20,86</t>
+          <t>-9,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,17</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,21</t>
+          <t>-14,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-15,81</t>
+          <t>-18,01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-6,85</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-4,71</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-34,33; -9,23</t>
+          <t>-26,87; -16,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,73; -8,58</t>
+          <t>-14,85; -3,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 1,77</t>
+          <t>-11,92; -0,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 2,55</t>
+          <t>-19,6; -9,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 19,33</t>
+          <t>-0,89; 10,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 15,89</t>
+          <t>-8,05; 1,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,67; -7,1</t>
+          <t>-21,23; -14,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 1,07</t>
+          <t>-6,63; 1,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 5,46</t>
+          <t>-8,2; -1,11</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-47,55%</t>
+          <t>-48,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-44,55%</t>
+          <t>-21,27%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-28,13%</t>
+          <t>-14,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-29,7%</t>
+          <t>-34,42%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,28%</t>
+          <t>-7,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-40,53%</t>
+          <t>-41,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-17,57%</t>
+          <t>-5,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-9,32%</t>
+          <t>-10,91%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-65,65; -23,61</t>
+          <t>-56,07; -38,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-63,69; -20,52</t>
+          <t>-31,3; -9,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-49,18; 5,1</t>
+          <t>-25,45; -0,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,15; 10,57</t>
+          <t>-44,29; -24,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 75,17</t>
+          <t>-2,1; 26,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 65,19</t>
+          <t>-17,68; 5,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,62; -19,41</t>
+          <t>-47,73; -35,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 2,87</t>
+          <t>-14,59; 3,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-28,16; 16,38</t>
+          <t>-18,37; -2,82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-21,6</t>
+          <t>-18,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,18</t>
+          <t>-7,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,01</t>
+          <t>-15,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-15,3</t>
+          <t>-10,98</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,19</t>
+          <t>-8,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-18,46</t>
+          <t>-14,49</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,6</t>
+          <t>-12,91</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,77; -15,75</t>
+          <t>-22,16; -13,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,51; -1,5</t>
+          <t>-11,38; -2,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 0,11</t>
+          <t>-28,7; -7,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-20,51; -9,36</t>
+          <t>-15,87; -6,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 10,29</t>
+          <t>-9,23; 0,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 0,21</t>
+          <t>-12,84; -4,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,96; -14,52</t>
+          <t>-17,54; -11,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 2,26</t>
+          <t>-8,85; -1,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,54; -1,78</t>
+          <t>-25,53; -7,64</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-48,63%</t>
+          <t>-42,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-16,17%</t>
+          <t>-16,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-13,52%</t>
+          <t>-37,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-35,15%</t>
+          <t>-23,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>-8,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,93%</t>
+          <t>-18,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-41,97%</t>
+          <t>-32,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,61%</t>
+          <t>-12,46%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-12,74%</t>
+          <t>-28,9%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-57,22; -37,76</t>
+          <t>-50,14; -34,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,58; -3,51</t>
+          <t>-25,09; -4,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,69; 0,31</t>
+          <t>-68,03; -17,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,18; -23,37</t>
+          <t>-32,26; -14,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 25,42</t>
+          <t>-18,29; 0,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 0,84</t>
+          <t>-26,07; -9,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-48,66; -34,58</t>
+          <t>-37,79; -25,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 5,46</t>
+          <t>-19,03; -4,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-20,79; -4,39</t>
+          <t>-54,29; -17,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-18,07</t>
+          <t>-11,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-10,61</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-10,98</t>
+          <t>-10,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,23</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-14,49</t>
+          <t>-11,36</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,57</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-9,89</t>
+          <t>0,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,16; -13,75</t>
+          <t>-16,78; -7,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -2,11</t>
+          <t>-4,51; 5,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-16,6; -5,57</t>
+          <t>-4,1; 6,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -6,09</t>
+          <t>-16,03; -5,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 0,18</t>
+          <t>-4,89; 5,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,32; -4,78</t>
+          <t>-20,63; 10,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,54; -11,04</t>
+          <t>-14,63; -8,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-8,85; -1,83</t>
+          <t>-2,98; 4,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,8; -6,64</t>
+          <t>-12,56; 6,9</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-42,9%</t>
+          <t>-36,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,63%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-25,2%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-23,25%</t>
+          <t>-27,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-8,88%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-19,55%</t>
+          <t>-4,38%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-32,44%</t>
+          <t>-31,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-12,46%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-22,15%</t>
+          <t>0,16%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,14; -34,44</t>
+          <t>-47,1; -24,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,09; -4,98</t>
+          <t>-12,77; 18,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,63; -13,79</t>
+          <t>-11,67; 22,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,26; -14,02</t>
+          <t>-38,03; -15,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 0,39</t>
+          <t>-11,63; 15,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,09; -10,81</t>
+          <t>-47,43; 27,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,79; -25,5</t>
+          <t>-38,87; -23,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,03; -4,56</t>
+          <t>-7,97; 11,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,23; -15,45</t>
+          <t>-35,06; 19,8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-11,92</t>
+          <t>-21,59</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-11,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-14,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-10,88</t>
+          <t>-22,69</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-10,42</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-15,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,36</t>
+          <t>-22,12</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-10,84</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>-14,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,78; -7,23</t>
+          <t>-25,65; -17,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 5,5</t>
+          <t>-15,86; -7,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 7,12</t>
+          <t>-18,35; -9,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-16,03; -5,52</t>
+          <t>-26,64; -18,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 5,6</t>
+          <t>-14,88; -5,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 8,06</t>
+          <t>-22,62; -10,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,63; -8,04</t>
+          <t>-25,04; -19,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 4,09</t>
+          <t>-13,95; -7,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 5,78</t>
+          <t>-18,73; -11,22</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-36,47%</t>
+          <t>-49,9%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>-26,39%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>-32,73%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-27,86%</t>
+          <t>-42,82%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>-19,67%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>-28,66%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-31,66%</t>
+          <t>-45,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>-22,42%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>-30,04%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,1; -24,07</t>
+          <t>-56,53; -41,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 18,66</t>
+          <t>-34,66; -17,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 23,4</t>
+          <t>-40,77; -23,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,03; -15,14</t>
+          <t>-48,58; -35,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 15,45</t>
+          <t>-27,14; -11,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 20,9</t>
+          <t>-43,24; -20,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-38,87; -23,82</t>
+          <t>-50,3; -40,85</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 11,93</t>
+          <t>-27,83; -16,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-18,07; 16,8</t>
+          <t>-38,06; -24,07</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-21,59</t>
+          <t>-18,59</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-11,42</t>
+          <t>-7,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-14,19</t>
+          <t>-10,17</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-22,69</t>
+          <t>-15,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-10,42</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-12,95</t>
+          <t>-8,17</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-22,12</t>
+          <t>-16,84</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-10,84</t>
+          <t>-5,27</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-13,3</t>
+          <t>-9,1</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-25,65; -17,56</t>
+          <t>-20,84; -16,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -7,03</t>
+          <t>-9,63; -4,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-18,44; -9,72</t>
+          <t>-16,69; -6,92</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-26,64; -18,34</t>
+          <t>-17,47; -12,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -5,84</t>
+          <t>-5,72; -0,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-17,08; -8,58</t>
+          <t>-14,85; -4,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-25,04; -19,09</t>
+          <t>-18,42; -15,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-13,95; -7,62</t>
+          <t>-7,07; -3,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-16,43; -10,22</t>
+          <t>-13,42; -6,39</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-49,9%</t>
+          <t>-45,28%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-26,39%</t>
+          <t>-17,65%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-32,8%</t>
+          <t>-24,77%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-42,82%</t>
+          <t>-32,92%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-19,67%</t>
+          <t>-7,39%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-24,43%</t>
+          <t>-17,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-45,76%</t>
+          <t>-38,6%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-22,42%</t>
+          <t>-12,07%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-27,51%</t>
+          <t>-20,86%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-56,53; -41,92</t>
+          <t>-49,31; -40,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-34,66; -17,05</t>
+          <t>-22,76; -12,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,88; -23,67</t>
+          <t>-40,29; -17,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-48,58; -35,54</t>
+          <t>-37,11; -28,88</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-27,14; -11,64</t>
+          <t>-12,07; -1,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-31,09; -16,83</t>
+          <t>-32,08; -10,0</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-50,3; -40,85</t>
+          <t>-41,4; -35,65</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-27,83; -16,1</t>
+          <t>-15,82; -8,36</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-33,0; -21,83</t>
+          <t>-31,13; -14,95</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-18,59</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-7,25</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-8,45</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-15,19</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-3,41</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-7,09</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-16,84</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-5,27</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-7,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-20,84; -16,34</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-9,63; -4,87</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-11,22; -5,95</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-17,47; -12,86</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-5,72; -0,72</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-11,15; -4,49</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-18,42; -15,26</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-7,07; -3,6</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-9,67; -5,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-45,28%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-17,65%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-20,58%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-32,92%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-7,39%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-15,36%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>-38,6%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-12,07%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-17,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-49,31; -40,96</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-22,76; -12,18</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-26,35; -15,03</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-37,11; -28,88</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-12,07; -1,64</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-23,78; -9,94</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-41,4; -35,65</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-15,82; -8,36</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-22,3; -13,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P34A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P34A_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,87; -16,8</t>
+          <t>-26,95; -16,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,85; -3,94</t>
+          <t>-14,85; -3,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,92; -0,27</t>
+          <t>-12,4; -0,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,6; -9,66</t>
+          <t>-19,56; -9,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 10,01</t>
+          <t>-0,68; 9,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 1,89</t>
+          <t>-7,98; 1,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,23; -14,37</t>
+          <t>-21,47; -14,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 1,34</t>
+          <t>-6,58; 1,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,2; -1,11</t>
+          <t>-8,62; -0,97</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,07; -38,94</t>
+          <t>-56,93; -39,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,3; -9,29</t>
+          <t>-31,38; -8,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-25,45; -0,35</t>
+          <t>-25,86; -1,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-44,29; -24,32</t>
+          <t>-44,46; -23,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 26,01</t>
+          <t>-1,6; 24,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 5,09</t>
+          <t>-17,92; 3,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,73; -35,07</t>
+          <t>-48,14; -34,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 3,22</t>
+          <t>-14,6; 3,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,37; -2,82</t>
+          <t>-19,06; -2,27</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,16; -13,75</t>
+          <t>-22,28; -13,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,38; -2,11</t>
+          <t>-11,37; -2,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,7; -7,07</t>
+          <t>-28,53; -7,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,87; -6,09</t>
+          <t>-15,21; -6,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 0,18</t>
+          <t>-9,03; 0,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,84; -4,34</t>
+          <t>-12,87; -4,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,54; -11,04</t>
+          <t>-17,72; -11,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,85; -1,83</t>
+          <t>-8,95; -2,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-25,53; -7,64</t>
+          <t>-24,1; -7,89</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-50,14; -34,44</t>
+          <t>-50,13; -33,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,09; -4,98</t>
+          <t>-25,33; -5,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,03; -17,19</t>
+          <t>-65,08; -17,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,26; -14,02</t>
+          <t>-30,9; -14,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 0,39</t>
+          <t>-18,11; 0,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,07; -9,66</t>
+          <t>-25,87; -9,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,79; -25,5</t>
+          <t>-38,14; -26,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,03; -4,56</t>
+          <t>-19,34; -5,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-54,29; -17,5</t>
+          <t>-52,17; -17,78</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-16,78; -7,23</t>
+          <t>-16,51; -7,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 5,5</t>
+          <t>-4,62; 5,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 6,9</t>
+          <t>-3,71; 7,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,03; -5,52</t>
+          <t>-16,05; -6,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 5,6</t>
+          <t>-4,39; 6,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 10,68</t>
+          <t>-20,94; 11,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,63; -8,04</t>
+          <t>-14,81; -7,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 4,09</t>
+          <t>-2,81; 3,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 6,9</t>
+          <t>-14,41; 6,86</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-47,1; -24,07</t>
+          <t>-47,52; -23,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,77; 18,66</t>
+          <t>-13,19; 18,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 22,55</t>
+          <t>-10,41; 23,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,03; -15,14</t>
+          <t>-38,55; -17,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 15,45</t>
+          <t>-10,72; 16,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,43; 27,93</t>
+          <t>-50,68; 29,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,87; -23,82</t>
+          <t>-39,37; -22,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 11,93</t>
+          <t>-7,49; 11,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-35,06; 19,8</t>
+          <t>-37,29; 19,31</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-25,65; -17,56</t>
+          <t>-25,57; -17,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,86; -7,03</t>
+          <t>-15,52; -7,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-18,35; -9,55</t>
+          <t>-18,52; -9,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,64; -18,34</t>
+          <t>-26,74; -17,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,88; -5,84</t>
+          <t>-14,7; -5,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,62; -10,24</t>
+          <t>-23,17; -10,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-25,04; -19,09</t>
+          <t>-25,04; -19,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-13,95; -7,62</t>
+          <t>-13,53; -7,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,73; -11,22</t>
+          <t>-19,13; -10,96</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-56,53; -41,92</t>
+          <t>-57,0; -42,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,66; -17,05</t>
+          <t>-34,29; -17,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-40,77; -23,17</t>
+          <t>-41,01; -23,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-48,58; -35,54</t>
+          <t>-49,01; -35,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,14; -11,64</t>
+          <t>-26,62; -11,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,24; -20,31</t>
+          <t>-43,12; -20,66</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-50,3; -40,85</t>
+          <t>-50,34; -40,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,83; -16,1</t>
+          <t>-27,23; -15,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-38,06; -24,07</t>
+          <t>-38,42; -23,41</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,84; -16,34</t>
+          <t>-20,97; -16,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,63; -4,87</t>
+          <t>-9,66; -4,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-16,69; -6,92</t>
+          <t>-17,78; -6,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-17,47; -12,86</t>
+          <t>-17,36; -12,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -0,72</t>
+          <t>-5,96; -1,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,85; -4,57</t>
+          <t>-15,27; -4,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-18,42; -15,26</t>
+          <t>-18,5; -15,23</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,07; -3,6</t>
+          <t>-7,09; -3,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-13,42; -6,39</t>
+          <t>-13,63; -6,28</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-49,31; -40,96</t>
+          <t>-49,51; -40,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,76; -12,18</t>
+          <t>-22,79; -11,68</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-40,29; -17,03</t>
+          <t>-42,37; -16,96</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-37,11; -28,88</t>
+          <t>-36,76; -28,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-12,07; -1,64</t>
+          <t>-12,5; -2,98</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-32,08; -10,0</t>
+          <t>-32,97; -10,28</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-41,4; -35,65</t>
+          <t>-41,64; -35,53</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-15,82; -8,36</t>
+          <t>-16,06; -8,55</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-31,13; -14,95</t>
+          <t>-31,22; -14,41</t>
         </is>
       </c>
     </row>
